--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -995,7 +995,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1019,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>69.5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>61</v>
@@ -1060,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>73.5</v>
@@ -1085,7 +1085,7 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
